--- a/analyses/3performance_human/tables/TableS1_mpa_designations.xlsx
+++ b/analyses/3performance_human/tables/TableS1_mpa_designations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/mpa_projects/ca-mpa/analyses/3performance_human/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84639F8B-D51D-B64E-A40B-2AA8A11697E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18AE2C-F097-184E-ABFA-FE767AE3A132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26140" yWindow="5220" windowWidth="28040" windowHeight="17440" xr2:uid="{03BFA87A-AE01-1C4E-B11D-BF7D75557CFC}"/>
+    <workbookView xWindow="1660" yWindow="8040" windowWidth="28040" windowHeight="17440" xr2:uid="{03BFA87A-AE01-1C4E-B11D-BF7D75557CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Restrictions</t>
   </si>
@@ -42,9 +42,6 @@
     <t>State marine conservation area (no take)</t>
   </si>
   <si>
-    <t>State marine park</t>
-  </si>
-  <si>
     <t>State marine recreational management area (SMRMA)</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>10 / 86 km2</t>
   </si>
   <si>
-    <t>61 / 880 km2</t>
-  </si>
-  <si>
     <t>7 / 17 km2</t>
   </si>
   <si>
@@ -120,10 +114,22 @@
     <t>9 / 394 km2</t>
   </si>
   <si>
-    <t>19 / 20 km2</t>
-  </si>
-  <si>
-    <t>127 / 2212 km2</t>
+    <t>60 / 880 km2</t>
+  </si>
+  <si>
+    <t>State marine park (SMP) - all in SF Bay</t>
+  </si>
+  <si>
+    <t>State marine conservation area (SMCA) - SF Bay</t>
+  </si>
+  <si>
+    <t>1 / 0 km2</t>
+  </si>
+  <si>
+    <t>124 / 2207 km2</t>
+  </si>
+  <si>
+    <t>22 / 25 km2</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E31047D-0B6E-A841-BBD6-CCE7EF335D7B}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:C12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -549,10 +555,10 @@
     </row>
     <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -561,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -572,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -583,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -594,27 +600,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -622,44 +628,55 @@
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
